--- a/docs/ST6/ST6_03.09.2024_output.xlsx
+++ b/docs/ST6/ST6_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1414 +505,1673 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731502332.0187862</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731502332.1115062</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502332.0187862.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502332.1115062.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>243.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>243.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731502332.1515224</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731502332.2637906</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502332.1515224.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502332.2637906.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>243.81</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>244.07</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731502336.529861</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731502336.661621</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502336.529861.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502336.661621.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>248.28</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>248.44</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731502338.0524209</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731502338.1265976</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502338.0524209.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731502338.1265976.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>246.29</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>246.69</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731502339.115285</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731502339.2041013</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502339.115285.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502339.2041013.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>243.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>243.75</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731502339.259734</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731502339.3729508</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502339.259734.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502339.3729508.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>243.81</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>244.07</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731502343.6048884</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731502343.718132</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502343.6048884.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502343.718132.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>248.28</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>248.44</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731502345.1313884</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731502345.2074897</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502345.1313884.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502345.2074897.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>246.29</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>246.69</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731502346.2694051</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731502346.361121</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502346.2694051.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502346.361121.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>244.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>244.54</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731502349.5370276</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731502349.6317265</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502349.5370276.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502349.6317265.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>248.22</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>247.79</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.4300000000000068</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731502351.7213435</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731502351.9477472</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502351.7213435.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502351.9477472.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>248.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>247.86</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731502352.532372</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731502352.6036205</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502352.532372.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502352.6036205.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>247.11</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>247.36</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731502352.645588</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731502352.7373335</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502352.645588.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731502352.7373335.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>247.2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>247.58</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3800000000000239</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731502353.7016482</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731502353.771921</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502353.7016482.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502353.771921.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>123.97</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>123.73</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731502359.2140708</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731502359.295079</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502359.2140708.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731502359.295079.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>123.17</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>123.26</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731502363.5925252</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731502363.6335163</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502363.5925252.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502363.6335163.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6192.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6200</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731502363.751613</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731502363.8687317</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502363.751613.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502363.8687317.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6184.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6188</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731502364.541196</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731502364.583165</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502364.541196.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502364.583165.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6206</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6198.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731502365.2576778</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731502365.3251534</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502365.2576778.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502365.3251534.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6230</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6236</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731502366.466483</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731502366.535779</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502366.466483.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731502366.535779.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6175.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6178.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731502368.6830559</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731502368.7357755</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502368.6830559.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502368.7357755.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>464.05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>462.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731502371.6380408</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731502371.757113</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502371.6380408.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502371.757113.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>466.65</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>468.35</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.700000000000045</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731502372.2197385</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731502372.2939138</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502372.2197385.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502372.2939138.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>469.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>469.5</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731502373.1264412</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731502373.2211428</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502373.1264412.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502373.2211428.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>469.7</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>470</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731502373.98825</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731502374.2293506</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502373.98825.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731502374.2293506.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>467.45</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>466.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731502375.8387485</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731502376.019311</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502375.8387485.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502376.019311.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>192.35</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>193.3</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.9500000000000171</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731502380.2926872</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731502380.384403</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.2926872.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.384403.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>194.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>194.96</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731502380.5483992</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731502380.6420941</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.5483992.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.6420941.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>193.41</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>193.41</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1905,3136 +2179,3712 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731502380.8372664</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731502380.9573476</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.8372664.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502380.9573476.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>194.35</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>193.89</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731502381.3916097</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731502381.4657903</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502381.3916097.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502381.4657903.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>193.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>193.57</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731502381.6307347</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731502381.6707494</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502381.6307347.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731502381.6707494.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>191.23</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>191.67</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731502386.711034</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731502386.802778</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502386.711034.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502386.802778.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>971</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>969</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731502387.5845819</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731502387.6743467</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502387.5845819.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502387.6743467.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>970.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>972</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731502388.4893067</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731502388.6620579</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502388.4893067.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502388.6620579.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>968.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>966.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.199999999999932</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731502389.494588</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731502389.7932436</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502389.494588.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731502389.7932436.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>962.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>963</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731502391.2055156</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731502391.3323953</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502391.2055156.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502391.3323953.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.995</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.988</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.006999999999999673</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731502393.2199807</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731502393.546941</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502393.2199807.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502393.546941.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.965</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.979</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731502395.1456296</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731502395.4657574</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502395.1456296.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731502395.4657574.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.01</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>12.037</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.02700000000000102</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731502399.9358404</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731502400.0471327</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502399.9358404.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502400.0471327.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>104.26</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>104.06</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731502400.369199</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731502400.4872806</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502400.369199.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502400.4872806.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>104.66</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>104.72</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731502400.8971999</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731502400.972352</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502400.8971999.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502400.972352.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>105.52</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>105.3</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731502403.7490735</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731502403.8300815</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502403.7490735.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502403.8300815.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>105.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>105.78</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731502404.4156818</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731502404.556235</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502404.4156818.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502404.556235.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>106.2</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>106.3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731502406.1998208</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731502406.3511</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502406.1998208.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502406.3511.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>107.34</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>107.26</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731502407.7096927</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731502407.9546986</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502407.7096927.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731502407.9546986.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>106.62</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>106.42</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731502409.9925578</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731502410.1858058</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502409.9925578.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502410.1858058.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>128.26</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>127.98</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2799999999999869</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731502413.3285272</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731502413.4934723</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502413.3285272.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502413.4934723.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>129.96</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>129.98</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731502416.5883691</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731502416.6469297</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502416.5883691.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502416.6469297.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>129.26</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>129.46</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731502416.95925</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731502417.114433</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502416.95925.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502417.114433.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>128.92</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>128.7</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731502418.0777452</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731502418.1353302</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502418.0777452.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731502418.1353302.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>127.22</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>127.44</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731502419.3484976</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731502419.513443</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502419.3484976.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502419.513443.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>41.25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>41.285</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03499999999999659</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731502426.4859896</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731502426.567973</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502426.4859896.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731502426.567973.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>40.67</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>40.97</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731502428.4643703</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731502428.574631</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502428.4643703.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502428.574631.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1169</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1170.8</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731502434.123193</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731502434.2354326</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502434.123193.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502434.2354326.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1195.6</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1198.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>3.200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731502435.0142822</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731502435.4154186</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502435.0142822.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731502435.4154186.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1172</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-18.59999999999991</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-1.56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731502437.548982</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731502437.9227622</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502437.548982.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502437.9227622.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>47.29</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>47.56</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2700000000000031</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731502441.7555165</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731502441.8736134</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502441.7555165.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731502441.8736134.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>48.42</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>48.36</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731502445.9641418</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731502446.1134698</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502445.9641418.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502446.1134698.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>86.34</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>86.31</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731502450.3196576</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731502450.3791888</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502450.3196576.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502450.3791888.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>87.62</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>87.67</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731502450.4767885</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731502450.5861013</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502450.4767885.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502450.5861013.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>87.34</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>87.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731502454.0430949</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731502454.1914473</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502454.0430949.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731502454.1914473.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>88.05</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>88</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731502456.1942003</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731502456.2634966</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502456.1942003.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502456.2634966.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>47.34</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>47.28</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731502456.9935443</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731502457.0462756</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502456.9935443.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502457.0462756.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>48.14</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>48.01</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731502459.50577</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731502459.6277702</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502459.50577.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502459.6277702.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>47.39</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>47.4</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731502460.9297535</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731502461.0468748</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502460.9297535.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502461.0468748.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>48.09</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>48.12</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.02999999999999403</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731502462.2366467</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731502462.392779</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502462.2366467.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502462.392779.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>47.26</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>47.34</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731502462.518683</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731502462.5889547</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502462.518683.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731502462.5889547.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>46.84</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>47.05</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2099999999999937</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731502463.6157064</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731502463.681099</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502463.6157064.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502463.681099.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>137.38</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>137.2</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731502464.160315</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731502464.2110667</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502464.160315.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502464.2110667.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>137.9</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>137.7</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731502464.426764</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731502464.6239152</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502464.426764.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502464.6239152.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>139.16</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>139</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731502465.6643326</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731502465.8009717</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502465.6643326.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502465.8009717.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>139.76</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>139.3</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.4599999999999795</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731502466.5241897</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731502466.5973895</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502466.5241897.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502466.5973895.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>140.3</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>140.06</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731502466.6481397</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731502466.6910858</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502466.6481397.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502466.6910858.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>140.12</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>139.96</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731502467.5109253</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731502467.743214</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502467.5109253.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502467.743214.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>139.5</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>139.42</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731502468.4918056</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731502468.635278</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502468.4918056.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502468.635278.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>139.9</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>140.14</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731502470.5775175</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731502470.8761747</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502470.5775175.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502470.8761747.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>137.5</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>137.82</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731502470.9874394</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731502471.0879667</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502470.9874394.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731502471.0879667.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>138.54</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>138.42</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731502472.5500154</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731502473.003855</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502472.5500154.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502473.003855.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.2741</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.2786</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.004500000000000004</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-1.64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731502474.448336</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731502474.573292</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502474.448336.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502474.573292.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.2789</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.2791</v>
       </c>
-      <c r="K81" t="n">
-        <v>0.000199999999999978</v>
+      <c r="M81" t="n">
+        <v>0.0002000000000000335</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731502474.7499204</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731502474.8719203</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502474.7499204.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502474.8719203.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.2782</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.279</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.0008000000000000229</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731502478.804227</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731502479.1877937</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502478.804227.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731502479.1877937.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.279</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.2794</v>
       </c>
-      <c r="K83" t="n">
-        <v>0.0004000000000000115</v>
+      <c r="M83" t="n">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731502482.346131</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731502482.466179</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502482.346131.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502482.466179.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>15.185</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>15.238</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.05299999999999905</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731502485.187269</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731502485.3248847</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502485.187269.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502485.3248847.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>15.413</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>15.407</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731502485.9163702</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731502486.039317</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502485.9163702.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.039317.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>15.449</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>15.426</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.02299999999999969</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731502486.4023905</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731502486.4833984</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.4023905.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.4833984.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>15.36</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>15.35</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.009999999999999787</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731502486.5634573</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731502486.7147102</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.5634573.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.7147102.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>15.281</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>15.3</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.01900000000000013</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731502486.888438</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731502486.945047</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.888438.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731502486.945047.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>15.228</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>15.26</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731502490.762217</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731502490.861735</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502490.762217.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502490.861735.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>651.45</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>651.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1500000000000909</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731502492.1198008</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731502492.3960092</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502492.1198008.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502492.3960092.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>653.9</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>653.95</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.05000000000006821</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731502493.979111</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731502494.0425212</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502493.979111.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502494.0425212.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>650.45</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>651.3</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.8499999999999091</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731502494.8721218</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731502494.944345</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502494.8721218.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502494.944345.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>651.2</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>652.05</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.8499999999999091</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731502495.901803</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731502496.1057856</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502495.901803.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731502496.1057856.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST6</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST6</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>650.75</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>650.2</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.5499999999999545</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -5048,7 +5898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5077,6 +5927,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5093,6 +5953,12 @@
       <c r="D2" t="n">
         <v>0.152000000000001</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5109,6 +5975,12 @@
       <c r="D3" t="n">
         <v>0.04777777777778485</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5125,6 +5997,12 @@
       <c r="D4" t="n">
         <v>0.04571428571428677</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5141,6 +6019,12 @@
       <c r="D5" t="n">
         <v>0.02049999999999989</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5157,6 +6041,12 @@
       <c r="D6" t="n">
         <v>0.0299999999999964</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5173,6 +6063,12 @@
       <c r="D7" t="n">
         <v>0.07666666666666799</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5189,6 +6085,12 @@
       <c r="D8" t="n">
         <v>0.2499999999999773</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5205,6 +6107,12 @@
       <c r="D9" t="n">
         <v>-0.2100000000000023</v>
       </c>
+      <c r="E9" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5221,6 +6129,12 @@
       <c r="D10" t="n">
         <v>0.09999999999999716</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5237,6 +6151,12 @@
       <c r="D11" t="n">
         <v>3.1</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5253,6 +6173,12 @@
       <c r="D12" t="n">
         <v>-0.0007749999999999979</v>
       </c>
+      <c r="E12" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5269,6 +6195,12 @@
       <c r="D13" t="n">
         <v>0.4500000000000171</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5285,6 +6217,12 @@
       <c r="D14" t="n">
         <v>0.01250000000000284</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5301,6 +6239,12 @@
       <c r="D15" t="n">
         <v>-0.02749999999999986</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5317,6 +6261,12 @@
       <c r="D16" t="n">
         <v>-0.002000000000000668</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5333,6 +6283,12 @@
       <c r="D17" t="n">
         <v>-5.733333333333273</v>
       </c>
+      <c r="E17" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5349,6 +6305,12 @@
       <c r="D18" t="n">
         <v>-0.1050000000000004</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.4500000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5365,6 +6327,12 @@
       <c r="D19" t="n">
         <v>0.1325000000000003</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5381,6 +6349,12 @@
       <c r="D20" t="n">
         <v>0.1649999999999991</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5395,6 +6369,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
